--- a/biology/Botanique/Delonix/Delonix.xlsx
+++ b/biology/Botanique/Delonix/Delonix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Delonix est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Caesalpinioideae, originaire d'Afrique orientale, de Madagascar et de la péninsule arabique, qui comprend deux espèces acceptées[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Delonix est un genre de plantes dicotylédones de la famille des Fabaceae (légumineuses), sous-famille des Caesalpinioideae, originaire d'Afrique orientale, de Madagascar et de la péninsule arabique, qui comprend deux espèces acceptées.
 Ce sont des arbres aux feuilles composées bipennées aux nombreuses folioles très petites et aux fleurs voyantes de couleur rouge orange ou blanche.
 L'espèce la plus connue est Delonix regia (flamboyant), largement plantée dans les pays tropicaux et subtropicaux pour l'ornement des rues, parcs et jardins. 
 </t>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Delonix », est un terme forgé par Constantine Samuel Rafinesque à partir de deux racines grecques, δηλος (delos),  visible, évident, et ονυξ (onyx), griffe, en référence à la forme des pétales[3]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Delonix », est un terme forgé par Constantine Samuel Rafinesque à partir de deux racines grecques, δηλος (delos),  visible, évident, et ονυξ (onyx), griffe, en référence à la forme des pétales. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (18 décembre 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (18 décembre 2018) :
 Delonix baccal (Chiov.) Baker f.
 Delonix boiviniana (Baill.) Capuron
 Delonix brachycarpa (R.Vig.) Capuron
